--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Title /Objective</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>validate direct mapping for EMP_id with respect to Source and Target Table                            Source Table - EMP_DTS_SRC1  Target table- EMP_DTS_TRG</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -683,7 +686,9 @@
         <v>43</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
